--- a/Example_data/NexteraXT_worksheet_20200504LP_NK.xlsx
+++ b/Example_data/NexteraXT_worksheet_20200504LP_NK.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Environmental Health\Health\Genomic and Metagenomic Resources\NextSeq\Runs\20200508\LibraryPrep_20200504_NK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\opentrons_protocols\Example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672F9E63-C599-43C2-BCEA-5F0317BB5867}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Library and Clean" sheetId="1" r:id="rId1"/>
     <sheet name="Library analysis" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -784,7 +785,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1154,7 +1155,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1431,7 +1432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1937,14 +1938,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H84"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5661,7 +5662,7 @@
         <v>0</v>
       </c>
       <c r="L84" s="42">
-        <f t="shared" si="23"/>
+        <f>2*20/E84</f>
         <v>247.59825327510919</v>
       </c>
       <c r="M84" s="42">
